--- a/AAAGameData/DataTables/CameraViewTable.xlsx
+++ b/AAAGameData/DataTables/CameraViewTable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\GF_HybridCLR\DataTables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unityProject\vehicle_gfx\AAAGameData\DataTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
   <si>
     <t>#</t>
   </si>
@@ -78,13 +78,38 @@
   </si>
   <si>
     <t>0,4.5,0</t>
+  </si>
+  <si>
+    <t>0,0,0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>平行视角</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,-20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>0,15,-20</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0,0,0</t>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,0,0</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -104,6 +129,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -111,12 +137,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -474,10 +502,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -541,10 +569,10 @@
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -593,6 +621,20 @@
       </c>
       <c r="E8" s="3" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/AAAGameData/DataTables/CameraViewTable.xlsx
+++ b/AAAGameData/DataTables/CameraViewTable.xlsx
@@ -88,10 +88,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0,0,-20</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>0,15,-20</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -110,6 +106,10 @@
       </rPr>
       <t>,0,0</t>
     </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,0,-10</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -505,13 +505,13 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="17.625" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
+    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
@@ -569,7 +569,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>19</v>
@@ -631,10 +631,10 @@
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/AAAGameData/DataTables/CameraViewTable.xlsx
+++ b/AAAGameData/DataTables/CameraViewTable.xlsx
@@ -16,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
   <si>
     <t>#</t>
   </si>
@@ -47,9 +47,6 @@
     <t>备注</t>
   </si>
   <si>
-    <t>跟随偏移</t>
-  </si>
-  <si>
     <t>默认视角</t>
   </si>
   <si>
@@ -84,16 +81,32 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>平行视角</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>0,15,-20</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>主菜单视角</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>改装视角</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟随的偏移</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>视角移动偏移</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>0</t>
+      <t>O</t>
     </r>
     <r>
       <rPr>
@@ -104,12 +117,55 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>,0,0</t>
+      <t>ffset</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>5,0,-10</t>
+    <t>视角中心偏移</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,0</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,0,0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,0,0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,-12</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,-12</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -179,7 +235,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -196,6 +252,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -502,19 +561,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.625" customWidth="1"/>
-    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -522,7 +583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -535,8 +596,11 @@
       <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -549,47 +613,62 @@
       <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="D4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>18</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
@@ -597,16 +676,19 @@
         <v>3</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -614,16 +696,19 @@
         <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F8" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>10</v>
       </c>
@@ -631,10 +716,30 @@
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B10">
+        <v>11</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>22</v>
+      <c r="F10" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/AAAGameData/DataTables/CameraViewTable.xlsx
+++ b/AAAGameData/DataTables/CameraViewTable.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>#</t>
   </si>
@@ -145,6 +145,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -153,19 +154,15 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1,0,0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>3,0,0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>0,1,-12</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1,-12</t>
+    <t>2,0,0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,-11</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -564,7 +561,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -722,7 +719,7 @@
         <v>18</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -733,13 +730,13 @@
         <v>21</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/AAAGameData/DataTables/CameraViewTable.xlsx
+++ b/AAAGameData/DataTables/CameraViewTable.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unityProject\vehicle_gfx\AAAGameData\DataTables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\unity_project\vehicle_gfx\AAAGameData\DataTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186F9C94-8165-4F1C-957F-2DB33E8F9BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17820"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>#</t>
   </si>
@@ -154,22 +155,30 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>3,0,0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>2,0,0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>0,1,-11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>FOV</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>视角范围</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,0,-15.5</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -272,9 +281,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -312,9 +321,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -349,7 +358,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -384,7 +393,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -557,11 +566,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -572,7 +581,7 @@
     <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -580,7 +589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -596,8 +605,11 @@
       <c r="F2" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G2" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -613,8 +625,11 @@
       <c r="F3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G3" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -630,8 +645,11 @@
       <c r="F4" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G4" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>1</v>
       </c>
@@ -647,8 +665,11 @@
       <c r="F5" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>2</v>
       </c>
@@ -664,8 +685,11 @@
       <c r="F6" s="3" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>0</v>
       </c>
@@ -684,8 +708,11 @@
       <c r="F7" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>0</v>
       </c>
@@ -704,8 +731,11 @@
       <c r="F8" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="G8">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>10</v>
       </c>
@@ -713,16 +743,19 @@
         <v>20</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+      <c r="G9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>11</v>
       </c>
@@ -730,13 +763,16 @@
         <v>21</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
+      </c>
+      <c r="G10">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -747,7 +783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -761,7 +797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/AAAGameData/DataTables/CameraViewTable.xlsx
+++ b/AAAGameData/DataTables/CameraViewTable.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\unity_project\vehicle_gfx\AAAGameData\DataTables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unityProject\vehicle_gfx\AAAGameData\DataTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186F9C94-8165-4F1C-957F-2DB33E8F9BAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>#</t>
   </si>
@@ -171,14 +170,18 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>3,0,-15.5</t>
+    <t>1,0.5,-11</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0.5,-11</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -281,9 +284,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -321,9 +324,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -358,7 +361,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -393,7 +396,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -566,11 +569,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -769,7 +772,7 @@
         <v>23</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G10">
         <v>60</v>
@@ -783,7 +786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -797,7 +800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/AAAGameData/DataTables/CameraViewTable.xlsx
+++ b/AAAGameData/DataTables/CameraViewTable.xlsx
@@ -170,11 +170,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1,0.5,-11</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0.5,-11</t>
+    <t>2,0.5,-15</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0.5,-15</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -573,7 +573,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/AAAGameData/DataTables/CameraViewTable.xlsx
+++ b/AAAGameData/DataTables/CameraViewTable.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>#</t>
   </si>
@@ -47,41 +47,7 @@
     <t>备注</t>
   </si>
   <si>
-    <t>默认视角</t>
-  </si>
-  <si>
-    <t>打伞视角</t>
-  </si>
-  <si>
-    <t>0,7,-10</t>
-  </si>
-  <si>
-    <t>0,-2,0</t>
-  </si>
-  <si>
-    <t>CPI视角</t>
-  </si>
-  <si>
-    <t>8.5,25.5,-14</t>
-  </si>
-  <si>
-    <t>0,7.5,0</t>
-  </si>
-  <si>
-    <t>Chibi视角</t>
-  </si>
-  <si>
-    <t>8.5,14,-14</t>
-  </si>
-  <si>
-    <t>0,4.5,0</t>
-  </si>
-  <si>
     <t>0,0,0</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,15,-20</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -126,38 +92,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>0,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,0</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,1,-11</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>FOV</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -170,11 +104,19 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>2,0.5,-15</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,0.5,-15</t>
+    <t>2,0,0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,-12.5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,-12.5</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -182,7 +124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -213,14 +155,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -244,7 +178,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -258,9 +192,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -570,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -606,10 +537,10 @@
         <v>4</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -629,7 +560,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -640,33 +571,33 @@
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="G5">
         <v>60</v>
@@ -676,105 +607,19 @@
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
+      <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G6">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B9">
-        <v>10</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B10">
-        <v>11</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10">
         <v>60</v>
       </c>
     </row>
